--- a/Assets/Excels/MoveFlash.xlsx
+++ b/Assets/Excels/MoveFlash.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
